--- a/backend/files/processed/公共预算支出增长统计_output_path.xlsx
+++ b/backend/files/processed/公共预算支出增长统计_output_path.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,260 +436,272 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">  宁夏回族自治区-      宁夏回族自治区本级</t>
+          <t>省(区、市、县)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>5617.34-4283.91</t>
+          <t>幼儿园-2022年</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>-19.85-50.16</t>
+          <t>幼儿园-增长率（%）</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3995.06-11127</t>
+          <t>普通小学-2022年</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>-10.91-24.87</t>
+          <t>普通小学-增长率（%）</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>5526.65-27526.89</t>
+          <t>普通初中-2022年</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>-14.25-1.24</t>
+          <t>普通初中-增长率（%）</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>5052.4-6367.71</t>
+          <t>普通高中-2022年</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>-20.32-3.12</t>
+          <t>普通高中-增长率（%）</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>9750.02-9418.88</t>
+          <t>中等职业学校-2022年</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>-15.46-1.88</t>
+          <t>中等职业学校-增长率（%）</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>11038.65-11187.48</t>
+          <t>普通高等学校-2022年</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>-18.01--19.52</t>
+          <t>普通高等学校-增长率（%）</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">    银川市</t>
+          <t xml:space="preserve">  宁夏回族自治区</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4599.44</v>
+        <v>5617.34</v>
       </c>
       <c r="C2" t="n">
-        <v>-39.45</v>
+        <v>-19.85</v>
       </c>
       <c r="D2" t="n">
-        <v>3260.58</v>
+        <v>3995.06</v>
       </c>
       <c r="E2" t="n">
-        <v>-27.8</v>
+        <v>-10.91</v>
       </c>
       <c r="F2" t="n">
-        <v>4535.75</v>
+        <v>5526.65</v>
       </c>
       <c r="G2" t="n">
-        <v>-12.99</v>
+        <v>-14.25</v>
       </c>
       <c r="H2" t="n">
-        <v>3885.75</v>
+        <v>5052.4</v>
       </c>
       <c r="I2" t="n">
-        <v>-31.09</v>
+        <v>-20.32</v>
       </c>
       <c r="J2" t="n">
-        <v>9166.26</v>
+        <v>9750.02</v>
       </c>
       <c r="K2" t="n">
-        <v>17.84</v>
+        <v>-15.46</v>
       </c>
       <c r="L2" t="n">
-        <v>6462.98</v>
+        <v>11038.65</v>
       </c>
       <c r="M2" t="n">
-        <v>-23.89</v>
+        <v>-18.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">      银川市本级</t>
+          <t xml:space="preserve">      宁夏回族自治区本级</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3979.85</v>
+        <v>4283.91</v>
       </c>
       <c r="C3" t="n">
-        <v>11.15</v>
+        <v>50.16</v>
       </c>
       <c r="D3" t="n">
-        <v>3013.13</v>
+        <v>11127</v>
       </c>
       <c r="E3" t="n">
-        <v>-15.79</v>
+        <v>24.87</v>
       </c>
       <c r="F3" t="n">
-        <v>2772.22</v>
+        <v>27526.89</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.96</v>
+        <v>1.24</v>
       </c>
       <c r="H3" t="n">
-        <v>3536.52</v>
+        <v>6367.71</v>
       </c>
       <c r="I3" t="n">
-        <v>-17.35</v>
+        <v>3.12</v>
       </c>
       <c r="J3" t="n">
-        <v>10747.41</v>
+        <v>9418.879999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>76.69</v>
+        <v>1.88</v>
       </c>
       <c r="L3" t="n">
-        <v>6462.98</v>
+        <v>11187.48</v>
       </c>
       <c r="M3" t="n">
-        <v>-23.89</v>
+        <v>-19.52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">      兴庆区</t>
+          <t xml:space="preserve">    银川市</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2066.83</v>
+        <v>4599.44</v>
       </c>
       <c r="C4" t="n">
-        <v>-57.72</v>
+        <v>-39.45</v>
       </c>
       <c r="D4" t="n">
-        <v>3018.46</v>
+        <v>3260.58</v>
       </c>
       <c r="E4" t="n">
-        <v>-26.55</v>
+        <v>-27.8</v>
       </c>
       <c r="F4" t="n">
-        <v>3093.25</v>
+        <v>4535.75</v>
       </c>
       <c r="G4" t="n">
-        <v>-25.55</v>
+        <v>-12.99</v>
       </c>
       <c r="H4" t="n">
-        <v>5787.41</v>
+        <v>3885.75</v>
       </c>
       <c r="I4" t="n">
-        <v>68.88</v>
+        <v>-31.09</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
+        <v>9166.26</v>
+      </c>
+      <c r="K4" t="n">
+        <v>17.84</v>
+      </c>
       <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>6462.98</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-23.89</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">      西夏区</t>
+          <t xml:space="preserve">      银川市本级</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4410.9</v>
+        <v>3979.85</v>
       </c>
       <c r="C5" t="n">
-        <v>-43.39</v>
+        <v>11.15</v>
       </c>
       <c r="D5" t="n">
-        <v>3502.77</v>
+        <v>3013.13</v>
       </c>
       <c r="E5" t="n">
-        <v>-36.96</v>
+        <v>-15.79</v>
       </c>
       <c r="F5" t="n">
-        <v>5059.86</v>
+        <v>2772.22</v>
       </c>
       <c r="G5" t="n">
-        <v>-38.28</v>
+        <v>-0.96</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>3536.52</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-17.35</v>
+      </c>
       <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>10747.41</v>
+      </c>
+      <c r="K5" t="n">
+        <v>76.69</v>
+      </c>
       <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>6462.98</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-23.89</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">      金凤区</t>
+          <t xml:space="preserve">      兴庆区</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5480.9</v>
+        <v>2066.83</v>
       </c>
       <c r="C6" t="n">
-        <v>-53.25</v>
+        <v>-57.72</v>
       </c>
       <c r="D6" t="n">
-        <v>4121.5</v>
+        <v>3018.46</v>
       </c>
       <c r="E6" t="n">
-        <v>-39.16</v>
+        <v>-26.55</v>
       </c>
       <c r="F6" t="n">
-        <v>8055.99</v>
+        <v>3093.25</v>
       </c>
       <c r="G6" t="n">
-        <v>-37.73</v>
+        <v>-25.55</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>5787.41</v>
+      </c>
+      <c r="I6" t="n">
+        <v>68.88</v>
+      </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
@@ -702,39 +714,35 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">      永宁县</t>
+          <t xml:space="preserve">      西夏区</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7110.51</v>
+        <v>4410.9</v>
       </c>
       <c r="C7" t="n">
-        <v>49.31</v>
+        <v>-43.39</v>
       </c>
       <c r="D7" t="n">
-        <v>2696</v>
+        <v>3502.77</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.06</v>
+        <v>-36.96</v>
       </c>
       <c r="F7" t="n">
-        <v>6316.96</v>
+        <v>5059.86</v>
       </c>
       <c r="G7" t="n">
-        <v>135.8</v>
+        <v>-38.28</v>
       </c>
       <c r="H7" t="n">
-        <v>4541.42</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-3.04</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>17999.43</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-4.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>0</v>
       </c>
@@ -743,33 +751,31 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">      贺兰县</t>
+          <t xml:space="preserve">      金凤区</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3393.9</v>
+        <v>5480.9</v>
       </c>
       <c r="C8" t="n">
-        <v>-61.92</v>
+        <v>-53.25</v>
       </c>
       <c r="D8" t="n">
-        <v>2120.74</v>
+        <v>4121.5</v>
       </c>
       <c r="E8" t="n">
-        <v>-47.64</v>
+        <v>-39.16</v>
       </c>
       <c r="F8" t="n">
-        <v>4068.74</v>
+        <v>8055.99</v>
       </c>
       <c r="G8" t="n">
-        <v>-42.78</v>
+        <v>-37.73</v>
       </c>
       <c r="H8" t="n">
-        <v>4320.59</v>
-      </c>
-      <c r="I8" t="n">
-        <v>-68.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>0</v>
       </c>
@@ -782,38 +788,38 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">      灵武市</t>
+          <t xml:space="preserve">      永宁县</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7658.51</v>
+        <v>7110.51</v>
       </c>
       <c r="C9" t="n">
-        <v>2.5</v>
+        <v>49.31</v>
       </c>
       <c r="D9" t="n">
-        <v>4399.26</v>
+        <v>2696</v>
       </c>
       <c r="E9" t="n">
-        <v>20.22</v>
+        <v>-11.06</v>
       </c>
       <c r="F9" t="n">
-        <v>6817.29</v>
+        <v>6316.96</v>
       </c>
       <c r="G9" t="n">
-        <v>2.33</v>
+        <v>135.8</v>
       </c>
       <c r="H9" t="n">
-        <v>3744.51</v>
+        <v>4541.42</v>
       </c>
       <c r="I9" t="n">
-        <v>30.17</v>
+        <v>-3.04</v>
       </c>
       <c r="J9" t="n">
-        <v>5941.37</v>
+        <v>17999.43</v>
       </c>
       <c r="K9" t="n">
-        <v>-42.11</v>
+        <v>-4.64</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -823,197 +829,199 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">    石嘴山市</t>
+          <t xml:space="preserve">      贺兰县</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8390.76</v>
+        <v>3393.9</v>
       </c>
       <c r="C10" t="n">
-        <v>12.8</v>
+        <v>-61.92</v>
       </c>
       <c r="D10" t="n">
-        <v>4539.51</v>
+        <v>2120.74</v>
       </c>
       <c r="E10" t="n">
-        <v>12.97</v>
+        <v>-47.64</v>
       </c>
       <c r="F10" t="n">
-        <v>4684.03</v>
+        <v>4068.74</v>
       </c>
       <c r="G10" t="n">
-        <v>-14.17</v>
+        <v>-42.78</v>
       </c>
       <c r="H10" t="n">
-        <v>6350.71</v>
+        <v>4320.59</v>
       </c>
       <c r="I10" t="n">
-        <v>-35.07</v>
+        <v>-68.73</v>
       </c>
       <c r="J10" t="n">
-        <v>7765.83</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-31.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>21531.69</v>
-      </c>
-      <c r="M10" t="n">
-        <v>20.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">      石嘴山市本级</t>
+          <t xml:space="preserve">      灵武市</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4750.99</v>
+        <v>7658.51</v>
       </c>
       <c r="C11" t="n">
-        <v>68.5</v>
+        <v>2.5</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>4399.26</v>
+      </c>
+      <c r="E11" t="n">
+        <v>20.22</v>
+      </c>
       <c r="F11" t="n">
-        <v>5428.73</v>
+        <v>6817.29</v>
       </c>
       <c r="G11" t="n">
-        <v>1.44</v>
+        <v>2.33</v>
       </c>
       <c r="H11" t="n">
-        <v>7043.59</v>
+        <v>3744.51</v>
       </c>
       <c r="I11" t="n">
-        <v>-37.13</v>
+        <v>30.17</v>
       </c>
       <c r="J11" t="n">
-        <v>8294.610000000001</v>
+        <v>5941.37</v>
       </c>
       <c r="K11" t="n">
-        <v>-15.34</v>
+        <v>-42.11</v>
       </c>
       <c r="L11" t="n">
-        <v>21531.69</v>
-      </c>
-      <c r="M11" t="n">
-        <v>20.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">      大武口区</t>
+          <t xml:space="preserve">    石嘴山市</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12219.22</v>
+        <v>8390.76</v>
       </c>
       <c r="C12" t="n">
-        <v>4.92</v>
+        <v>12.8</v>
       </c>
       <c r="D12" t="n">
-        <v>4996.29</v>
+        <v>4539.51</v>
       </c>
       <c r="E12" t="n">
-        <v>56.66</v>
+        <v>12.97</v>
       </c>
       <c r="F12" t="n">
-        <v>3705.12</v>
+        <v>4684.03</v>
       </c>
       <c r="G12" t="n">
-        <v>12.22</v>
+        <v>-14.17</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>6350.71</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-35.07</v>
+      </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr"/>
+        <v>7765.83</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-31.79</v>
+      </c>
       <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>21531.69</v>
+      </c>
+      <c r="M12" t="n">
+        <v>20.17</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">      惠农区</t>
+          <t xml:space="preserve">      石嘴山市本级</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11116.42</v>
+        <v>4750.99</v>
       </c>
       <c r="C13" t="n">
-        <v>14.37</v>
+        <v>68.5</v>
       </c>
       <c r="D13" t="n">
-        <v>6205.76</v>
-      </c>
-      <c r="E13" t="n">
-        <v>48.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>8405.43</v>
+        <v>5428.73</v>
       </c>
       <c r="G13" t="n">
-        <v>46.8</v>
+        <v>1.44</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>7043.59</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-37.13</v>
+      </c>
       <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="inlineStr"/>
+        <v>8294.610000000001</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-15.34</v>
+      </c>
       <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>21531.69</v>
+      </c>
+      <c r="M13" t="n">
+        <v>20.17</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">      平罗县</t>
+          <t xml:space="preserve">      大武口区</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6161.63</v>
+        <v>12219.22</v>
       </c>
       <c r="C14" t="n">
-        <v>14.88</v>
+        <v>4.92</v>
       </c>
       <c r="D14" t="n">
-        <v>3245.12</v>
+        <v>4996.29</v>
       </c>
       <c r="E14" t="n">
-        <v>-31.07</v>
+        <v>56.66</v>
       </c>
       <c r="F14" t="n">
-        <v>3499.34</v>
+        <v>3705.12</v>
       </c>
       <c r="G14" t="n">
-        <v>-48.96</v>
+        <v>12.22</v>
       </c>
       <c r="H14" t="n">
-        <v>5395.72</v>
-      </c>
-      <c r="I14" t="n">
-        <v>-30.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>7161.51</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-47.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>0</v>
       </c>
@@ -1022,203 +1030,199 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">    吴忠市</t>
+          <t xml:space="preserve">      惠农区</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8623.23</v>
+        <v>11116.42</v>
       </c>
       <c r="C15" t="n">
-        <v>-12.28</v>
+        <v>14.37</v>
       </c>
       <c r="D15" t="n">
-        <v>4253.62</v>
+        <v>6205.76</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.43</v>
+        <v>48.98</v>
       </c>
       <c r="F15" t="n">
-        <v>5769.97</v>
+        <v>8405.43</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.25</v>
+        <v>46.8</v>
       </c>
       <c r="H15" t="n">
-        <v>5876.66</v>
-      </c>
-      <c r="I15" t="n">
-        <v>-6.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>15387.94</v>
-      </c>
-      <c r="K15" t="n">
-        <v>-9.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>5726.68</v>
-      </c>
-      <c r="M15" t="n">
-        <v>-16.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">      吴忠市本级</t>
+          <t xml:space="preserve">      平罗县</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9115.030000000001</v>
+        <v>6161.63</v>
       </c>
       <c r="C16" t="n">
-        <v>-40.11</v>
+        <v>14.88</v>
       </c>
       <c r="D16" t="n">
-        <v>5117.86</v>
+        <v>3245.12</v>
       </c>
       <c r="E16" t="n">
-        <v>4.05</v>
+        <v>-31.07</v>
       </c>
       <c r="F16" t="n">
-        <v>5480.49</v>
+        <v>3499.34</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.98</v>
+        <v>-48.96</v>
       </c>
       <c r="H16" t="n">
-        <v>4633.41</v>
+        <v>5395.72</v>
       </c>
       <c r="I16" t="n">
-        <v>-19.94</v>
+        <v>-30.7</v>
       </c>
       <c r="J16" t="n">
-        <v>2308.25</v>
+        <v>7161.51</v>
       </c>
       <c r="K16" t="n">
-        <v>0.14</v>
+        <v>-47.65</v>
       </c>
       <c r="L16" t="n">
-        <v>5726.68</v>
-      </c>
-      <c r="M16" t="n">
-        <v>-16.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">      利通区</t>
+          <t xml:space="preserve">    吴忠市</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15981.75</v>
+        <v>8623.23</v>
       </c>
       <c r="C17" t="n">
-        <v>9.08</v>
+        <v>-12.28</v>
       </c>
       <c r="D17" t="n">
-        <v>5339.06</v>
+        <v>4253.62</v>
       </c>
       <c r="E17" t="n">
-        <v>24.29</v>
+        <v>-2.43</v>
       </c>
       <c r="F17" t="n">
-        <v>10285.37</v>
+        <v>5769.97</v>
       </c>
       <c r="G17" t="n">
-        <v>45.4</v>
+        <v>-9.25</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>5876.66</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-6.15</v>
+      </c>
       <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+        <v>15387.94</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-9.6</v>
+      </c>
       <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>5726.68</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-16.61</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">      红寺堡区</t>
+          <t xml:space="preserve">      吴忠市本级</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11447.3</v>
+        <v>9115.030000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>1.34</v>
+        <v>-40.11</v>
       </c>
       <c r="D18" t="n">
-        <v>6361.16</v>
+        <v>5117.86</v>
       </c>
       <c r="E18" t="n">
-        <v>-17.14</v>
+        <v>4.05</v>
       </c>
       <c r="F18" t="n">
-        <v>8022.26</v>
+        <v>5480.49</v>
       </c>
       <c r="G18" t="n">
-        <v>-29.73</v>
+        <v>-6.98</v>
       </c>
       <c r="H18" t="n">
-        <v>7332.24</v>
+        <v>4633.41</v>
       </c>
       <c r="I18" t="n">
-        <v>-6.24</v>
+        <v>-19.94</v>
       </c>
       <c r="J18" t="n">
-        <v>20448.61</v>
+        <v>2308.25</v>
       </c>
       <c r="K18" t="n">
-        <v>3.84</v>
+        <v>0.14</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>5726.68</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-16.61</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">      盐池县</t>
+          <t xml:space="preserve">      利通区</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13937.34</v>
+        <v>15981.75</v>
       </c>
       <c r="C19" t="n">
-        <v>8.390000000000001</v>
+        <v>9.08</v>
       </c>
       <c r="D19" t="n">
-        <v>7662.68</v>
+        <v>5339.06</v>
       </c>
       <c r="E19" t="n">
-        <v>25.96</v>
+        <v>24.29</v>
       </c>
       <c r="F19" t="n">
-        <v>7494.16</v>
+        <v>10285.37</v>
       </c>
       <c r="G19" t="n">
-        <v>25</v>
+        <v>45.4</v>
       </c>
       <c r="H19" t="n">
-        <v>10916.71</v>
-      </c>
-      <c r="I19" t="n">
-        <v>8.94</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>34191.21</v>
-      </c>
-      <c r="K19" t="n">
-        <v>-12.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>0</v>
       </c>
@@ -1227,38 +1231,38 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">      同心县</t>
+          <t xml:space="preserve">      红寺堡区</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1148.07</v>
+        <v>11447.3</v>
       </c>
       <c r="C20" t="n">
-        <v>-78.11</v>
+        <v>1.34</v>
       </c>
       <c r="D20" t="n">
-        <v>2145.92</v>
+        <v>6361.16</v>
       </c>
       <c r="E20" t="n">
-        <v>-17.56</v>
+        <v>-17.14</v>
       </c>
       <c r="F20" t="n">
-        <v>4089.5</v>
+        <v>8022.26</v>
       </c>
       <c r="G20" t="n">
-        <v>0.73</v>
+        <v>-29.73</v>
       </c>
       <c r="H20" t="n">
-        <v>6853.12</v>
+        <v>7332.24</v>
       </c>
       <c r="I20" t="n">
-        <v>5.65</v>
+        <v>-6.24</v>
       </c>
       <c r="J20" t="n">
-        <v>18344.32</v>
+        <v>20448.61</v>
       </c>
       <c r="K20" t="n">
-        <v>1.37</v>
+        <v>3.84</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1268,38 +1272,38 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">      青铜峡市</t>
+          <t xml:space="preserve">      盐池县</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6096.63</v>
+        <v>13937.34</v>
       </c>
       <c r="C21" t="n">
-        <v>-24.02</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>1275.46</v>
+        <v>7662.68</v>
       </c>
       <c r="E21" t="n">
-        <v>-48.96</v>
+        <v>25.96</v>
       </c>
       <c r="F21" t="n">
-        <v>3952.04</v>
+        <v>7494.16</v>
       </c>
       <c r="G21" t="n">
-        <v>-27.09</v>
+        <v>25</v>
       </c>
       <c r="H21" t="n">
-        <v>2472.81</v>
+        <v>10916.71</v>
       </c>
       <c r="I21" t="n">
-        <v>-20.18</v>
+        <v>8.94</v>
       </c>
       <c r="J21" t="n">
-        <v>9150.08</v>
+        <v>34191.21</v>
       </c>
       <c r="K21" t="n">
-        <v>-37.35</v>
+        <v>-12.91</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1309,38 +1313,38 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">    固原市</t>
+          <t xml:space="preserve">      同心县</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5679.52</v>
+        <v>1148.07</v>
       </c>
       <c r="C22" t="n">
-        <v>-8.16</v>
+        <v>-78.11</v>
       </c>
       <c r="D22" t="n">
-        <v>4387.42</v>
+        <v>2145.92</v>
       </c>
       <c r="E22" t="n">
-        <v>-11.49</v>
+        <v>-17.56</v>
       </c>
       <c r="F22" t="n">
-        <v>6417.11</v>
+        <v>4089.5</v>
       </c>
       <c r="G22" t="n">
-        <v>-22.28</v>
+        <v>0.73</v>
       </c>
       <c r="H22" t="n">
-        <v>5000.91</v>
+        <v>6853.12</v>
       </c>
       <c r="I22" t="n">
-        <v>-20.62</v>
+        <v>5.65</v>
       </c>
       <c r="J22" t="n">
-        <v>9255.24</v>
+        <v>18344.32</v>
       </c>
       <c r="K22" t="n">
-        <v>-38.01</v>
+        <v>1.37</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1350,38 +1354,38 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">      固原市本级</t>
+          <t xml:space="preserve">      青铜峡市</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>12098.26</v>
+        <v>6096.63</v>
       </c>
       <c r="C23" t="n">
-        <v>-66.36</v>
+        <v>-24.02</v>
       </c>
       <c r="D23" t="n">
-        <v>4465.77</v>
+        <v>1275.46</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97</v>
+        <v>-48.96</v>
       </c>
       <c r="F23" t="n">
-        <v>9893.52</v>
+        <v>3952.04</v>
       </c>
       <c r="G23" t="n">
-        <v>-29.95</v>
+        <v>-27.09</v>
       </c>
       <c r="H23" t="n">
-        <v>4658.67</v>
+        <v>2472.81</v>
       </c>
       <c r="I23" t="n">
-        <v>-26.21</v>
+        <v>-20.18</v>
       </c>
       <c r="J23" t="n">
-        <v>9230.51</v>
+        <v>9150.08</v>
       </c>
       <c r="K23" t="n">
-        <v>-49.67</v>
+        <v>-37.35</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1391,37 +1395,39 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">      原州区</t>
+          <t xml:space="preserve">    固原市</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6887.96</v>
+        <v>5679.52</v>
       </c>
       <c r="C24" t="n">
-        <v>19.53</v>
+        <v>-8.16</v>
       </c>
       <c r="D24" t="n">
-        <v>3540.99</v>
+        <v>4387.42</v>
       </c>
       <c r="E24" t="n">
-        <v>-11.94</v>
+        <v>-11.49</v>
       </c>
       <c r="F24" t="n">
-        <v>3867.73</v>
+        <v>6417.11</v>
       </c>
       <c r="G24" t="n">
-        <v>-29.05</v>
+        <v>-22.28</v>
       </c>
       <c r="H24" t="n">
-        <v>2189.04</v>
+        <v>5000.91</v>
       </c>
       <c r="I24" t="n">
-        <v>58.85</v>
+        <v>-20.62</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+        <v>9255.24</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-38.01</v>
+      </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
@@ -1430,38 +1436,38 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">      西吉县</t>
+          <t xml:space="preserve">      固原市本级</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7127.74</v>
+        <v>12098.26</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.18</v>
+        <v>-66.36</v>
       </c>
       <c r="D25" t="n">
-        <v>3698.8</v>
+        <v>4465.77</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.78</v>
+        <v>46.97</v>
       </c>
       <c r="F25" t="n">
-        <v>5472.93</v>
+        <v>9893.52</v>
       </c>
       <c r="G25" t="n">
-        <v>-33.23</v>
+        <v>-29.95</v>
       </c>
       <c r="H25" t="n">
-        <v>6951.04</v>
+        <v>4658.67</v>
       </c>
       <c r="I25" t="n">
-        <v>-20.04</v>
+        <v>-26.21</v>
       </c>
       <c r="J25" t="n">
-        <v>7975.98</v>
+        <v>9230.51</v>
       </c>
       <c r="K25" t="n">
-        <v>-30.28</v>
+        <v>-49.67</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1471,39 +1477,37 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">      隆德县</t>
+          <t xml:space="preserve">      原州区</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1435.14</v>
+        <v>6887.96</v>
       </c>
       <c r="C26" t="n">
-        <v>0.63</v>
+        <v>19.53</v>
       </c>
       <c r="D26" t="n">
-        <v>5468.11</v>
+        <v>3540.99</v>
       </c>
       <c r="E26" t="n">
-        <v>0.13</v>
+        <v>-11.94</v>
       </c>
       <c r="F26" t="n">
-        <v>9959.08</v>
+        <v>3867.73</v>
       </c>
       <c r="G26" t="n">
-        <v>0.88</v>
+        <v>-29.05</v>
       </c>
       <c r="H26" t="n">
-        <v>4883.95</v>
+        <v>2189.04</v>
       </c>
       <c r="I26" t="n">
-        <v>2.26</v>
+        <v>58.85</v>
       </c>
       <c r="J26" t="n">
-        <v>17761.71</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.05</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>0</v>
       </c>
@@ -1512,38 +1516,38 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">      泾源县</t>
+          <t xml:space="preserve">      西吉县</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1897.01</v>
+        <v>7127.74</v>
       </c>
       <c r="C27" t="n">
-        <v>3.18</v>
+        <v>-7.18</v>
       </c>
       <c r="D27" t="n">
-        <v>10959.04</v>
+        <v>3698.8</v>
       </c>
       <c r="E27" t="n">
-        <v>28.77</v>
+        <v>-25.78</v>
       </c>
       <c r="F27" t="n">
-        <v>4487.41</v>
+        <v>5472.93</v>
       </c>
       <c r="G27" t="n">
-        <v>9.859999999999999</v>
+        <v>-33.23</v>
       </c>
       <c r="H27" t="n">
-        <v>5529.59</v>
+        <v>6951.04</v>
       </c>
       <c r="I27" t="n">
-        <v>13.37</v>
+        <v>-20.04</v>
       </c>
       <c r="J27" t="n">
-        <v>10964.82</v>
+        <v>7975.98</v>
       </c>
       <c r="K27" t="n">
-        <v>18.96</v>
+        <v>-30.28</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -1553,38 +1557,38 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">      彭阳县</t>
+          <t xml:space="preserve">      隆德县</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4532.43</v>
+        <v>1435.14</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.38</v>
+        <v>0.63</v>
       </c>
       <c r="D28" t="n">
-        <v>4180.61</v>
+        <v>5468.11</v>
       </c>
       <c r="E28" t="n">
-        <v>-32.33</v>
+        <v>0.13</v>
       </c>
       <c r="F28" t="n">
-        <v>13118.22</v>
+        <v>9959.08</v>
       </c>
       <c r="G28" t="n">
-        <v>-10.31</v>
+        <v>0.88</v>
       </c>
       <c r="H28" t="n">
-        <v>3136.96</v>
+        <v>4883.95</v>
       </c>
       <c r="I28" t="n">
-        <v>-41.77</v>
+        <v>2.26</v>
       </c>
       <c r="J28" t="n">
-        <v>6653.59</v>
+        <v>17761.71</v>
       </c>
       <c r="K28" t="n">
-        <v>-60.75</v>
+        <v>0.05</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -1594,38 +1598,38 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">    中卫市</t>
+          <t xml:space="preserve">      泾源县</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2960.27</v>
+        <v>1897.01</v>
       </c>
       <c r="C29" t="n">
-        <v>-25.23</v>
+        <v>3.18</v>
       </c>
       <c r="D29" t="n">
-        <v>3781.38</v>
+        <v>10959.04</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.7</v>
+        <v>28.77</v>
       </c>
       <c r="F29" t="n">
-        <v>5261.5</v>
+        <v>4487.41</v>
       </c>
       <c r="G29" t="n">
-        <v>-12.94</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>3791.36</v>
+        <v>5529.59</v>
       </c>
       <c r="I29" t="n">
-        <v>-32.12</v>
+        <v>13.37</v>
       </c>
       <c r="J29" t="n">
-        <v>8075.32</v>
+        <v>10964.82</v>
       </c>
       <c r="K29" t="n">
-        <v>-19.57</v>
+        <v>18.96</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -1635,38 +1639,38 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">      中卫市本级</t>
+          <t xml:space="preserve">      彭阳县</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9795.040000000001</v>
+        <v>4532.43</v>
       </c>
       <c r="C30" t="n">
-        <v>8.960000000000001</v>
+        <v>-13.38</v>
       </c>
       <c r="D30" t="n">
-        <v>4618.74</v>
+        <v>4180.61</v>
       </c>
       <c r="E30" t="n">
-        <v>-57.57</v>
+        <v>-32.33</v>
       </c>
       <c r="F30" t="n">
-        <v>8098.14</v>
+        <v>13118.22</v>
       </c>
       <c r="G30" t="n">
-        <v>15.23</v>
+        <v>-10.31</v>
       </c>
       <c r="H30" t="n">
-        <v>2634.68</v>
+        <v>3136.96</v>
       </c>
       <c r="I30" t="n">
-        <v>-36.76</v>
+        <v>-41.77</v>
       </c>
       <c r="J30" t="n">
-        <v>4253.03</v>
+        <v>6653.59</v>
       </c>
       <c r="K30" t="n">
-        <v>-59.88</v>
+        <v>-60.75</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -1676,35 +1680,39 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">      沙坡头区</t>
+          <t xml:space="preserve">    中卫市</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1591.71</v>
+        <v>2960.27</v>
       </c>
       <c r="C31" t="n">
-        <v>-57.48</v>
+        <v>-25.23</v>
       </c>
       <c r="D31" t="n">
-        <v>3807.48</v>
+        <v>3781.38</v>
       </c>
       <c r="E31" t="n">
-        <v>26.35</v>
+        <v>-1.7</v>
       </c>
       <c r="F31" t="n">
-        <v>6479.49</v>
+        <v>5261.5</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.17</v>
+        <v>-12.94</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>3791.36</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-32.12</v>
+      </c>
       <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+        <v>8075.32</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-19.57</v>
+      </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
@@ -1713,38 +1721,38 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">      中宁县</t>
+          <t xml:space="preserve">      中卫市本级</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1829.37</v>
+        <v>9795.040000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>-46.32</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>4202.26</v>
+        <v>4618.74</v>
       </c>
       <c r="E32" t="n">
-        <v>2.69</v>
+        <v>-57.57</v>
       </c>
       <c r="F32" t="n">
-        <v>5446.99</v>
+        <v>8098.14</v>
       </c>
       <c r="G32" t="n">
-        <v>-29.52</v>
+        <v>15.23</v>
       </c>
       <c r="H32" t="n">
-        <v>4197.33</v>
+        <v>2634.68</v>
       </c>
       <c r="I32" t="n">
-        <v>-21.28</v>
+        <v>-36.76</v>
       </c>
       <c r="J32" t="n">
-        <v>11985.16</v>
+        <v>4253.03</v>
       </c>
       <c r="K32" t="n">
-        <v>-6.84</v>
+        <v>-59.88</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -1754,39 +1762,35 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">      海原县</t>
+          <t xml:space="preserve">      沙坡头区</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3669.11</v>
+        <v>1591.71</v>
       </c>
       <c r="C33" t="n">
-        <v>8.31</v>
+        <v>-57.48</v>
       </c>
       <c r="D33" t="n">
-        <v>3358.76</v>
+        <v>3807.48</v>
       </c>
       <c r="E33" t="n">
-        <v>6.29</v>
+        <v>26.35</v>
       </c>
       <c r="F33" t="n">
-        <v>3924.04</v>
+        <v>6479.49</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.31</v>
+        <v>-8.17</v>
       </c>
       <c r="H33" t="n">
-        <v>4499.96</v>
-      </c>
-      <c r="I33" t="n">
-        <v>-36.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>10219.96</v>
-      </c>
-      <c r="K33" t="n">
-        <v>40.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>0</v>
       </c>
@@ -1795,35 +1799,39 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">    宁东能源化工基地</t>
+          <t xml:space="preserve">      中宁县</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>25165.9</v>
+        <v>1829.37</v>
       </c>
       <c r="C34" t="n">
-        <v>-49.64</v>
+        <v>-46.32</v>
       </c>
       <c r="D34" t="n">
-        <v>6647.18</v>
+        <v>4202.26</v>
       </c>
       <c r="E34" t="n">
-        <v>6.84</v>
+        <v>2.69</v>
       </c>
       <c r="F34" t="n">
-        <v>7562.78</v>
+        <v>5446.99</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.27</v>
+        <v>-29.52</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>4197.33</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-21.28</v>
+      </c>
       <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+        <v>11985.16</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-6.84</v>
+      </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
@@ -1832,39 +1840,117 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t xml:space="preserve">      海原县</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3669.11</v>
+      </c>
+      <c r="C35" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="D35" t="n">
+        <v>3358.76</v>
+      </c>
+      <c r="E35" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="F35" t="n">
+        <v>3924.04</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="H35" t="n">
+        <v>4499.96</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-36.53</v>
+      </c>
+      <c r="J35" t="n">
+        <v>10219.96</v>
+      </c>
+      <c r="K35" t="n">
+        <v>40.82</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    宁东能源化工基地</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>25165.9</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-49.64</v>
+      </c>
+      <c r="D36" t="n">
+        <v>6647.18</v>
+      </c>
+      <c r="E36" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>7562.78</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-3.27</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t xml:space="preserve">      宁东能源化工基地本级</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B37" t="n">
         <v>25165.9</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C37" t="n">
         <v>-49.64</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D37" t="n">
         <v>6647.18</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E37" t="n">
         <v>6.84</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F37" t="n">
         <v>7562.78</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G37" t="n">
         <v>-3.27</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
